--- a/excel_sample_data/PayrollTransactions_SampleData.xlsx
+++ b/excel_sample_data/PayrollTransactions_SampleData.xlsx
@@ -524,37 +524,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>34925404</v>
+        <v>21449864</v>
       </c>
       <c r="K2" t="n">
-        <v>1770307</v>
+        <v>488942</v>
       </c>
       <c r="L2" t="n">
-        <v>2444778.28</v>
+        <v>1501490.48</v>
       </c>
       <c r="M2" t="n">
-        <v>3669571.1</v>
+        <v>2193880.6</v>
       </c>
       <c r="N2" t="n">
-        <v>30581361.62</v>
+        <v>18243434.92</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -588,37 +588,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>35678484</v>
+        <v>35566455</v>
       </c>
       <c r="K3" t="n">
-        <v>4274648</v>
+        <v>2537626</v>
       </c>
       <c r="L3" t="n">
-        <v>2497493.88</v>
+        <v>2489651.85</v>
       </c>
       <c r="M3" t="n">
-        <v>3995313.2</v>
+        <v>3810408.1</v>
       </c>
       <c r="N3" t="n">
-        <v>33460324.92</v>
+        <v>31804021.05</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -661,28 +661,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>29882461</v>
+        <v>24209864</v>
       </c>
       <c r="K4" t="n">
-        <v>4247210</v>
+        <v>1551137</v>
       </c>
       <c r="L4" t="n">
-        <v>2091772.27</v>
+        <v>1694690.48</v>
       </c>
       <c r="M4" t="n">
-        <v>3412967.1</v>
+        <v>2576100.1</v>
       </c>
       <c r="N4" t="n">
-        <v>28624931.63</v>
+        <v>21490210.42</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -725,28 +725,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>46804438</v>
+        <v>30798832</v>
       </c>
       <c r="K5" t="n">
-        <v>2732180</v>
+        <v>1986820</v>
       </c>
       <c r="L5" t="n">
-        <v>3276310.66</v>
+        <v>2155918.24</v>
       </c>
       <c r="M5" t="n">
-        <v>4953661.8</v>
+        <v>3278565.2</v>
       </c>
       <c r="N5" t="n">
-        <v>41306645.54000001</v>
+        <v>27351168.56</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -780,37 +780,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
-        <v>44959541</v>
+        <v>17383280</v>
       </c>
       <c r="K6" t="n">
-        <v>3150804</v>
+        <v>5128272</v>
       </c>
       <c r="L6" t="n">
-        <v>3147167.87</v>
+        <v>1216829.6</v>
       </c>
       <c r="M6" t="n">
-        <v>4811034.5</v>
+        <v>2251155.2</v>
       </c>
       <c r="N6" t="n">
-        <v>40152142.63</v>
+        <v>19043567.2</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -844,37 +844,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>35067339</v>
+        <v>19659710</v>
       </c>
       <c r="K7" t="n">
-        <v>3935130</v>
+        <v>8626570</v>
       </c>
       <c r="L7" t="n">
-        <v>2454713.73</v>
+        <v>1376179.7</v>
       </c>
       <c r="M7" t="n">
-        <v>3900246.9</v>
+        <v>2828628</v>
       </c>
       <c r="N7" t="n">
-        <v>32647508.37</v>
+        <v>24081472.3</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -917,28 +917,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
-        <v>29788392</v>
+        <v>49847191</v>
       </c>
       <c r="K8" t="n">
-        <v>12314800</v>
+        <v>4241510</v>
       </c>
       <c r="L8" t="n">
-        <v>2085187.44</v>
+        <v>3489303.37</v>
       </c>
       <c r="M8" t="n">
-        <v>4210319.2</v>
+        <v>5408870.100000001</v>
       </c>
       <c r="N8" t="n">
-        <v>35807685.36</v>
+        <v>45190527.53</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -972,37 +972,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>44376539</v>
+        <v>37829276</v>
       </c>
       <c r="K9" t="n">
-        <v>1443942</v>
+        <v>4903395</v>
       </c>
       <c r="L9" t="n">
-        <v>3106357.73</v>
+        <v>2648049.32</v>
       </c>
       <c r="M9" t="n">
-        <v>4582048.100000001</v>
+        <v>4273267.100000001</v>
       </c>
       <c r="N9" t="n">
-        <v>38132075.16999999</v>
+        <v>35811354.58</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1036,37 +1036,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
         <v>20</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>47</v>
-      </c>
       <c r="J10" t="n">
-        <v>41222954</v>
+        <v>32690161</v>
       </c>
       <c r="K10" t="n">
-        <v>8801831</v>
+        <v>2208640</v>
       </c>
       <c r="L10" t="n">
-        <v>2885606.78</v>
+        <v>2288311.27</v>
       </c>
       <c r="M10" t="n">
-        <v>5002478.5</v>
+        <v>3489880.1</v>
       </c>
       <c r="N10" t="n">
-        <v>42136699.72</v>
+        <v>29120609.63</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1100,37 +1100,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J11" t="n">
-        <v>32062618</v>
+        <v>17857286</v>
       </c>
       <c r="K11" t="n">
-        <v>5354184</v>
+        <v>6636024</v>
       </c>
       <c r="L11" t="n">
-        <v>2244383.26</v>
+        <v>1250010.02</v>
       </c>
       <c r="M11" t="n">
-        <v>3741680.2</v>
+        <v>2449331</v>
       </c>
       <c r="N11" t="n">
-        <v>31430738.54</v>
+        <v>20793968.98</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1173,28 +1173,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>35334972</v>
+        <v>22895769</v>
       </c>
       <c r="K12" t="n">
-        <v>5573384</v>
+        <v>9879336</v>
       </c>
       <c r="L12" t="n">
-        <v>2473448.04</v>
+        <v>1602703.83</v>
       </c>
       <c r="M12" t="n">
-        <v>4090835.6</v>
+        <v>3277510.5</v>
       </c>
       <c r="N12" t="n">
-        <v>34344072.36</v>
+        <v>27894890.67</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1237,28 +1237,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>22549129</v>
+        <v>30245562</v>
       </c>
       <c r="K13" t="n">
-        <v>2646468</v>
+        <v>1318967</v>
       </c>
       <c r="L13" t="n">
-        <v>1578439.03</v>
+        <v>2117189.34</v>
       </c>
       <c r="M13" t="n">
-        <v>2519559.7</v>
+        <v>3156452.9</v>
       </c>
       <c r="N13" t="n">
-        <v>21097598.27</v>
+        <v>26290886.76</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1292,37 +1292,37 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J14" t="n">
-        <v>20431168</v>
+        <v>35818213</v>
       </c>
       <c r="K14" t="n">
-        <v>4860640</v>
+        <v>13127092</v>
       </c>
       <c r="L14" t="n">
-        <v>1430181.76</v>
+        <v>2507274.91</v>
       </c>
       <c r="M14" t="n">
-        <v>2529180.8</v>
+        <v>4894530.5</v>
       </c>
       <c r="N14" t="n">
-        <v>21332445.44</v>
+        <v>41543499.59</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1356,37 +1356,37 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>18646812</v>
+        <v>37292944</v>
       </c>
       <c r="K15" t="n">
-        <v>3859824</v>
+        <v>7710023</v>
       </c>
       <c r="L15" t="n">
-        <v>1305276.84</v>
+        <v>2610506.08</v>
       </c>
       <c r="M15" t="n">
-        <v>2250663.6</v>
+        <v>4500296.7</v>
       </c>
       <c r="N15" t="n">
-        <v>18950695.56</v>
+        <v>37892164.22</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1420,37 +1420,37 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>38397909</v>
+        <v>15284071</v>
       </c>
       <c r="K16" t="n">
-        <v>6460428</v>
+        <v>3007998</v>
       </c>
       <c r="L16" t="n">
-        <v>2687853.63</v>
+        <v>1069884.97</v>
       </c>
       <c r="M16" t="n">
-        <v>4485833.7</v>
+        <v>1829206.9</v>
       </c>
       <c r="N16" t="n">
-        <v>37684649.66999999</v>
+        <v>15392977.13</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1484,37 +1484,37 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
-        <v>20464692</v>
+        <v>23371380</v>
       </c>
       <c r="K17" t="n">
-        <v>4279410</v>
+        <v>2008357</v>
       </c>
       <c r="L17" t="n">
-        <v>1432528.44</v>
+        <v>1635996.6</v>
       </c>
       <c r="M17" t="n">
-        <v>2474410.2</v>
+        <v>2537973.7</v>
       </c>
       <c r="N17" t="n">
-        <v>20837163.36</v>
+        <v>21205766.7</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1548,37 +1548,37 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>35182662</v>
+        <v>31393596</v>
       </c>
       <c r="K18" t="n">
-        <v>12867645</v>
+        <v>4243659</v>
       </c>
       <c r="L18" t="n">
-        <v>2462786.34</v>
+        <v>2197551.72</v>
       </c>
       <c r="M18" t="n">
-        <v>4805030.7</v>
+        <v>3563725.5</v>
       </c>
       <c r="N18" t="n">
-        <v>40782489.95999999</v>
+        <v>29875977.78</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1612,37 +1612,37 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>18614845</v>
+        <v>38624552</v>
       </c>
       <c r="K19" t="n">
-        <v>5574912</v>
+        <v>985705</v>
       </c>
       <c r="L19" t="n">
-        <v>1303039.15</v>
+        <v>2703718.64</v>
       </c>
       <c r="M19" t="n">
-        <v>2418975.7</v>
+        <v>3961025.7</v>
       </c>
       <c r="N19" t="n">
-        <v>20467742.15</v>
+        <v>32945512.66</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1676,37 +1676,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>22</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J20" t="n">
-        <v>20091229</v>
+        <v>24176509</v>
       </c>
       <c r="K20" t="n">
-        <v>1351865</v>
+        <v>4951488</v>
       </c>
       <c r="L20" t="n">
-        <v>1406386.03</v>
+        <v>1692355.63</v>
       </c>
       <c r="M20" t="n">
-        <v>2144309.4</v>
+        <v>2912799.7</v>
       </c>
       <c r="N20" t="n">
-        <v>17892398.57</v>
+        <v>24522841.67</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1740,37 +1740,37 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J21" t="n">
-        <v>28264597</v>
+        <v>42224593</v>
       </c>
       <c r="K21" t="n">
-        <v>8710884</v>
+        <v>6492843</v>
       </c>
       <c r="L21" t="n">
-        <v>1978521.79</v>
+        <v>2955721.51</v>
       </c>
       <c r="M21" t="n">
-        <v>3697548.1</v>
+        <v>4871743.600000001</v>
       </c>
       <c r="N21" t="n">
-        <v>31299411.11</v>
+        <v>40889970.89</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1804,37 +1804,37 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>30782657</v>
+        <v>37255440</v>
       </c>
       <c r="K22" t="n">
-        <v>2684272</v>
+        <v>3079648</v>
       </c>
       <c r="L22" t="n">
-        <v>2154785.99</v>
+        <v>2607880.8</v>
       </c>
       <c r="M22" t="n">
-        <v>3346692.9</v>
+        <v>4033508.8</v>
       </c>
       <c r="N22" t="n">
-        <v>27965450.11</v>
+        <v>33693698.40000001</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1877,28 +1877,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>44358022</v>
+        <v>23023366</v>
       </c>
       <c r="K23" t="n">
-        <v>6236280</v>
+        <v>1393075</v>
       </c>
       <c r="L23" t="n">
-        <v>3105061.540000001</v>
+        <v>1611635.62</v>
       </c>
       <c r="M23" t="n">
-        <v>5059430.2</v>
+        <v>2441644.1</v>
       </c>
       <c r="N23" t="n">
-        <v>42429810.26</v>
+        <v>20363161.28</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1932,37 +1932,37 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J24" t="n">
-        <v>41817780</v>
+        <v>41913092</v>
       </c>
       <c r="K24" t="n">
-        <v>3644844</v>
+        <v>9552708</v>
       </c>
       <c r="L24" t="n">
-        <v>2927244.6</v>
+        <v>2933916.44</v>
       </c>
       <c r="M24" t="n">
-        <v>4546262.4</v>
+        <v>5146580</v>
       </c>
       <c r="N24" t="n">
-        <v>37989117</v>
+        <v>43385303.56</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1996,37 +1996,37 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J25" t="n">
-        <v>21941787</v>
+        <v>16614904</v>
       </c>
       <c r="K25" t="n">
-        <v>3780192</v>
+        <v>7826960</v>
       </c>
       <c r="L25" t="n">
-        <v>1535925.09</v>
+        <v>1163043.28</v>
       </c>
       <c r="M25" t="n">
-        <v>2572197.9</v>
+        <v>2444186.4</v>
       </c>
       <c r="N25" t="n">
-        <v>21613856.01</v>
+        <v>20834634.32</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2060,37 +2060,37 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="J26" t="n">
-        <v>46564616</v>
+        <v>21999654</v>
       </c>
       <c r="K26" t="n">
-        <v>375318</v>
+        <v>9552543</v>
       </c>
       <c r="L26" t="n">
-        <v>3259523.12</v>
+        <v>1539975.78</v>
       </c>
       <c r="M26" t="n">
-        <v>4693993.4</v>
+        <v>3155219.7</v>
       </c>
       <c r="N26" t="n">
-        <v>38986417.48</v>
+        <v>26857001.52</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2124,37 +2124,37 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J27" t="n">
-        <v>29853078</v>
+        <v>48159440</v>
       </c>
       <c r="K27" t="n">
-        <v>11468643</v>
+        <v>2749936</v>
       </c>
       <c r="L27" t="n">
-        <v>2089715.46</v>
+        <v>3371160.8</v>
       </c>
       <c r="M27" t="n">
-        <v>4132172.1</v>
+        <v>5090937.600000001</v>
       </c>
       <c r="N27" t="n">
-        <v>35099833.44</v>
+        <v>42447277.6</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2197,28 +2197,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="J28" t="n">
-        <v>33488994</v>
+        <v>38828076</v>
       </c>
       <c r="K28" t="n">
-        <v>1662367</v>
+        <v>10215777</v>
       </c>
       <c r="L28" t="n">
-        <v>2344229.58</v>
+        <v>2717965.32</v>
       </c>
       <c r="M28" t="n">
-        <v>3515136.1</v>
+        <v>4904385.3</v>
       </c>
       <c r="N28" t="n">
-        <v>29291995.32</v>
+        <v>41421502.38</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2252,37 +2252,37 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J29" t="n">
-        <v>33942999</v>
+        <v>19181810</v>
       </c>
       <c r="K29" t="n">
-        <v>6600550</v>
+        <v>9559000</v>
       </c>
       <c r="L29" t="n">
-        <v>2376009.93</v>
+        <v>1342726.7</v>
       </c>
       <c r="M29" t="n">
-        <v>4054354.9</v>
+        <v>2874081</v>
       </c>
       <c r="N29" t="n">
-        <v>34113184.17</v>
+        <v>24524002.3</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2316,37 +2316,37 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J30" t="n">
-        <v>17633223</v>
+        <v>45709964</v>
       </c>
       <c r="K30" t="n">
-        <v>3225336</v>
+        <v>4451730</v>
       </c>
       <c r="L30" t="n">
-        <v>1234325.61</v>
+        <v>3199697.48</v>
       </c>
       <c r="M30" t="n">
-        <v>2085855.9</v>
+        <v>5016169.4</v>
       </c>
       <c r="N30" t="n">
-        <v>17538377.49</v>
+        <v>41945827.12</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J31" t="n">
-        <v>42768182</v>
+        <v>29586441</v>
       </c>
       <c r="K31" t="n">
-        <v>4465208</v>
+        <v>5367165</v>
       </c>
       <c r="L31" t="n">
-        <v>2993772.74</v>
+        <v>2071050.87</v>
       </c>
       <c r="M31" t="n">
-        <v>4723339</v>
+        <v>3495360.6</v>
       </c>
       <c r="N31" t="n">
-        <v>39516278.26</v>
+        <v>29387194.53</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2444,37 +2444,37 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>27</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J32" t="n">
-        <v>35017054</v>
+        <v>19282068</v>
       </c>
       <c r="K32" t="n">
-        <v>7675050</v>
+        <v>8520688</v>
       </c>
       <c r="L32" t="n">
-        <v>2451193.78</v>
+        <v>1349744.76</v>
       </c>
       <c r="M32" t="n">
-        <v>4269210.4</v>
+        <v>2780275.6</v>
       </c>
       <c r="N32" t="n">
-        <v>35971699.82</v>
+        <v>23672735.64</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2508,37 +2508,37 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H33" t="n">
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J33" t="n">
-        <v>20196933</v>
+        <v>26881516</v>
       </c>
       <c r="K33" t="n">
-        <v>230126</v>
+        <v>6516422</v>
       </c>
       <c r="L33" t="n">
-        <v>1413785.31</v>
+        <v>1881706.12</v>
       </c>
       <c r="M33" t="n">
-        <v>2042705.9</v>
+        <v>3339793.8</v>
       </c>
       <c r="N33" t="n">
-        <v>16970567.79</v>
+        <v>28176438.08</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2572,37 +2572,37 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J34" t="n">
-        <v>27850643</v>
+        <v>16241875</v>
       </c>
       <c r="K34" t="n">
-        <v>2492272</v>
+        <v>5196196</v>
       </c>
       <c r="L34" t="n">
-        <v>1949545.01</v>
+        <v>1136931.25</v>
       </c>
       <c r="M34" t="n">
-        <v>3034291.5</v>
+        <v>2143807.1</v>
       </c>
       <c r="N34" t="n">
-        <v>25359078.49</v>
+        <v>18157332.65</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2636,37 +2636,37 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J35" t="n">
-        <v>36998108</v>
+        <v>39020829</v>
       </c>
       <c r="K35" t="n">
-        <v>2056848</v>
+        <v>4220328</v>
       </c>
       <c r="L35" t="n">
-        <v>2589867.56</v>
+        <v>2731458.03</v>
       </c>
       <c r="M35" t="n">
-        <v>3905495.6</v>
+        <v>4324115.7</v>
       </c>
       <c r="N35" t="n">
-        <v>32559592.84</v>
+        <v>36185583.27</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2700,37 +2700,37 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J36" t="n">
-        <v>21047164</v>
+        <v>45168625</v>
       </c>
       <c r="K36" t="n">
-        <v>10366660</v>
+        <v>2220740</v>
       </c>
       <c r="L36" t="n">
-        <v>1473301.48</v>
+        <v>3161803.75</v>
       </c>
       <c r="M36" t="n">
-        <v>3141382.4</v>
+        <v>4738936.5</v>
       </c>
       <c r="N36" t="n">
-        <v>26799140.12</v>
+        <v>39488624.75</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2764,37 +2764,37 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J37" t="n">
-        <v>33853193</v>
+        <v>46927083</v>
       </c>
       <c r="K37" t="n">
-        <v>878880</v>
+        <v>1771308</v>
       </c>
       <c r="L37" t="n">
-        <v>2369723.51</v>
+        <v>3284895.810000001</v>
       </c>
       <c r="M37" t="n">
-        <v>3473207.3</v>
+        <v>4869839.100000001</v>
       </c>
       <c r="N37" t="n">
-        <v>28889142.19</v>
+        <v>40543656.09</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2828,37 +2828,37 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
-        <v>41521881</v>
+        <v>38267800</v>
       </c>
       <c r="K38" t="n">
-        <v>3464448</v>
+        <v>1461999</v>
       </c>
       <c r="L38" t="n">
-        <v>2906531.67</v>
+        <v>2678746</v>
       </c>
       <c r="M38" t="n">
-        <v>4498632.9</v>
+        <v>3972979.9</v>
       </c>
       <c r="N38" t="n">
-        <v>37581164.43</v>
+        <v>33078073.1</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2892,37 +2892,37 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="J39" t="n">
-        <v>37002618</v>
+        <v>45106759</v>
       </c>
       <c r="K39" t="n">
-        <v>869672</v>
+        <v>9137970</v>
       </c>
       <c r="L39" t="n">
-        <v>2590183.26</v>
+        <v>3157473.13</v>
       </c>
       <c r="M39" t="n">
-        <v>3787229</v>
+        <v>5424472.9</v>
       </c>
       <c r="N39" t="n">
-        <v>31494877.74</v>
+        <v>45662782.97</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2956,37 +2956,37 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J40" t="n">
-        <v>31891536</v>
+        <v>20769559</v>
       </c>
       <c r="K40" t="n">
-        <v>1092852</v>
+        <v>4868892</v>
       </c>
       <c r="L40" t="n">
-        <v>2232407.52</v>
+        <v>1453869.13</v>
       </c>
       <c r="M40" t="n">
-        <v>3298438.8</v>
+        <v>2563845.1</v>
       </c>
       <c r="N40" t="n">
-        <v>27453541.68</v>
+        <v>21620736.77</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3020,37 +3020,37 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J41" t="n">
-        <v>44618801</v>
+        <v>32112519</v>
       </c>
       <c r="K41" t="n">
-        <v>12598515</v>
+        <v>5979148</v>
       </c>
       <c r="L41" t="n">
-        <v>3123316.07</v>
+        <v>2247876.33</v>
       </c>
       <c r="M41" t="n">
-        <v>5721731.600000001</v>
+        <v>3809166.7</v>
       </c>
       <c r="N41" t="n">
-        <v>48372268.33</v>
+        <v>32034623.97</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3084,37 +3084,37 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="J42" t="n">
-        <v>41754917</v>
+        <v>33463218</v>
       </c>
       <c r="K42" t="n">
-        <v>1582720</v>
+        <v>6449320</v>
       </c>
       <c r="L42" t="n">
-        <v>2922844.19</v>
+        <v>2342425.26</v>
       </c>
       <c r="M42" t="n">
-        <v>4333763.7</v>
+        <v>3991253.8</v>
       </c>
       <c r="N42" t="n">
-        <v>36081029.11</v>
+        <v>33578858.94000001</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3148,37 +3148,37 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>24</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J43" t="n">
-        <v>21838608</v>
+        <v>42454930</v>
       </c>
       <c r="K43" t="n">
-        <v>8549911</v>
+        <v>5008916</v>
       </c>
       <c r="L43" t="n">
-        <v>1528702.56</v>
+        <v>2971845.1</v>
       </c>
       <c r="M43" t="n">
-        <v>3038851.9</v>
+        <v>4746384.600000001</v>
       </c>
       <c r="N43" t="n">
-        <v>25820964.54</v>
+        <v>39745616.3</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -3227,22 +3227,22 @@
         <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J44" t="n">
-        <v>26208151</v>
+        <v>21661209</v>
       </c>
       <c r="K44" t="n">
-        <v>7647744</v>
+        <v>6203880</v>
       </c>
       <c r="L44" t="n">
-        <v>1834570.57</v>
+        <v>1516284.63</v>
       </c>
       <c r="M44" t="n">
-        <v>3385589.5</v>
+        <v>2786508.9</v>
       </c>
       <c r="N44" t="n">
-        <v>28635734.93</v>
+        <v>23562295.47</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3285,28 +3285,28 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
         <v>7</v>
       </c>
       <c r="J45" t="n">
-        <v>27158799</v>
+        <v>48082728</v>
       </c>
       <c r="K45" t="n">
-        <v>860489</v>
+        <v>1285508</v>
       </c>
       <c r="L45" t="n">
-        <v>1901115.93</v>
+        <v>3365790.96</v>
       </c>
       <c r="M45" t="n">
-        <v>2801928.8</v>
+        <v>4936823.600000001</v>
       </c>
       <c r="N45" t="n">
-        <v>23316243.27</v>
+        <v>41065621.44</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3340,37 +3340,37 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J46" t="n">
-        <v>34435756</v>
+        <v>46489778</v>
       </c>
       <c r="K46" t="n">
-        <v>6148516</v>
+        <v>10608873</v>
       </c>
       <c r="L46" t="n">
-        <v>2410502.92</v>
+        <v>3254284.46</v>
       </c>
       <c r="M46" t="n">
-        <v>4058427.2</v>
+        <v>5709865.100000001</v>
       </c>
       <c r="N46" t="n">
-        <v>34115341.88</v>
+        <v>48134501.44</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3404,37 +3404,37 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J47" t="n">
-        <v>27112713</v>
+        <v>19432577</v>
       </c>
       <c r="K47" t="n">
-        <v>2818260</v>
+        <v>7775654</v>
       </c>
       <c r="L47" t="n">
-        <v>1897889.91</v>
+        <v>1360280.39</v>
       </c>
       <c r="M47" t="n">
-        <v>2993097.3</v>
+        <v>2720823.1</v>
       </c>
       <c r="N47" t="n">
-        <v>25039985.79</v>
+        <v>23127127.51</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3468,37 +3468,37 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>29</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
         <v>22</v>
       </c>
       <c r="J48" t="n">
-        <v>43025310</v>
+        <v>28603195</v>
       </c>
       <c r="K48" t="n">
-        <v>5829362</v>
+        <v>6302978</v>
       </c>
       <c r="L48" t="n">
-        <v>3011771.7</v>
+        <v>2002223.65</v>
       </c>
       <c r="M48" t="n">
-        <v>4885467.2</v>
+        <v>3490617.3</v>
       </c>
       <c r="N48" t="n">
-        <v>40957433.09999999</v>
+        <v>29413332.05</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -3532,37 +3532,37 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
         <v>32</v>
       </c>
       <c r="J49" t="n">
-        <v>49754193</v>
+        <v>45154968</v>
       </c>
       <c r="K49" t="n">
-        <v>7818144</v>
+        <v>8294496</v>
       </c>
       <c r="L49" t="n">
-        <v>3482793.51</v>
+        <v>3160847.76</v>
       </c>
       <c r="M49" t="n">
-        <v>5757233.7</v>
+        <v>5344946.4</v>
       </c>
       <c r="N49" t="n">
-        <v>48332309.79</v>
+        <v>44943669.84</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3596,37 +3596,37 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J50" t="n">
-        <v>33906582</v>
+        <v>20079476</v>
       </c>
       <c r="K50" t="n">
-        <v>2495040</v>
+        <v>3555712</v>
       </c>
       <c r="L50" t="n">
-        <v>2373460.74</v>
+        <v>1405563.32</v>
       </c>
       <c r="M50" t="n">
-        <v>3640162.2</v>
+        <v>2363518.8</v>
       </c>
       <c r="N50" t="n">
-        <v>30387999.06</v>
+        <v>19866105.88</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3660,37 +3660,37 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J51" t="n">
-        <v>26216636</v>
+        <v>16555316</v>
       </c>
       <c r="K51" t="n">
-        <v>10959316</v>
+        <v>5574294</v>
       </c>
       <c r="L51" t="n">
-        <v>1835164.52</v>
+        <v>1158872.12</v>
       </c>
       <c r="M51" t="n">
-        <v>3717595.2</v>
+        <v>2212961</v>
       </c>
       <c r="N51" t="n">
-        <v>31623192.28</v>
+        <v>18757776.88</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3724,37 +3724,37 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J52" t="n">
-        <v>19635717</v>
+        <v>46443773</v>
       </c>
       <c r="K52" t="n">
-        <v>2821880</v>
+        <v>5682590</v>
       </c>
       <c r="L52" t="n">
-        <v>1374500.19</v>
+        <v>3251064.11</v>
       </c>
       <c r="M52" t="n">
-        <v>2245759.7</v>
+        <v>5212636.300000001</v>
       </c>
       <c r="N52" t="n">
-        <v>18837337.11</v>
+        <v>43662662.59</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3788,37 +3788,37 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="J53" t="n">
-        <v>41721631</v>
+        <v>49847023</v>
       </c>
       <c r="K53" t="n">
-        <v>11524947</v>
+        <v>3162742</v>
       </c>
       <c r="L53" t="n">
-        <v>2920514.17</v>
+        <v>3489291.61</v>
       </c>
       <c r="M53" t="n">
-        <v>5324657.800000001</v>
+        <v>5300976.5</v>
       </c>
       <c r="N53" t="n">
-        <v>45001406.03</v>
+        <v>44219496.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3852,37 +3852,37 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J54" t="n">
-        <v>44054101</v>
+        <v>27931085</v>
       </c>
       <c r="K54" t="n">
-        <v>2150673</v>
+        <v>10300017</v>
       </c>
       <c r="L54" t="n">
-        <v>3083787.07</v>
+        <v>1955175.95</v>
       </c>
       <c r="M54" t="n">
-        <v>4620477.4</v>
+        <v>3823110.2</v>
       </c>
       <c r="N54" t="n">
-        <v>38500509.53</v>
+        <v>32452815.85</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3916,37 +3916,37 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J55" t="n">
-        <v>22580509</v>
+        <v>29817931</v>
       </c>
       <c r="K55" t="n">
-        <v>6541834</v>
+        <v>4031139</v>
       </c>
       <c r="L55" t="n">
-        <v>1580635.63</v>
+        <v>2087255.17</v>
       </c>
       <c r="M55" t="n">
-        <v>2912234.3</v>
+        <v>3384907</v>
       </c>
       <c r="N55" t="n">
-        <v>24629473.07</v>
+        <v>28376907.83</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3980,37 +3980,37 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J56" t="n">
-        <v>23467591</v>
+        <v>20681802</v>
       </c>
       <c r="K56" t="n">
-        <v>6721143</v>
+        <v>6825293</v>
       </c>
       <c r="L56" t="n">
-        <v>1642731.37</v>
+        <v>1447726.14</v>
       </c>
       <c r="M56" t="n">
-        <v>3018873.4</v>
+        <v>2750709.5</v>
       </c>
       <c r="N56" t="n">
-        <v>25527129.23</v>
+        <v>23308659.36</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>36108418</v>
+        <v>39360666</v>
       </c>
       <c r="K57" t="n">
-        <v>2452110</v>
+        <v>730064</v>
       </c>
       <c r="L57" t="n">
-        <v>2527589.26</v>
+        <v>2755246.62</v>
       </c>
       <c r="M57" t="n">
-        <v>3856052.8</v>
+        <v>4009073</v>
       </c>
       <c r="N57" t="n">
-        <v>32176885.94</v>
+        <v>33326410.38</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4108,37 +4108,37 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J58" t="n">
-        <v>49807648</v>
+        <v>33949089</v>
       </c>
       <c r="K58" t="n">
-        <v>2886960</v>
+        <v>12084600</v>
       </c>
       <c r="L58" t="n">
-        <v>3486535.36</v>
+        <v>2376436.23</v>
       </c>
       <c r="M58" t="n">
-        <v>5269460.800000001</v>
+        <v>4603368.9</v>
       </c>
       <c r="N58" t="n">
-        <v>43938611.84</v>
+        <v>39053883.87</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4172,37 +4172,37 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J59" t="n">
-        <v>48421541</v>
+        <v>46479200</v>
       </c>
       <c r="K59" t="n">
-        <v>7322157</v>
+        <v>7383240</v>
       </c>
       <c r="L59" t="n">
-        <v>3389507.87</v>
+        <v>3253544</v>
       </c>
       <c r="M59" t="n">
-        <v>5574369.800000001</v>
+        <v>5386244</v>
       </c>
       <c r="N59" t="n">
-        <v>46779820.33</v>
+        <v>45222652</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4236,37 +4236,37 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J60" t="n">
-        <v>20119867</v>
+        <v>31395261</v>
       </c>
       <c r="K60" t="n">
-        <v>8285909</v>
+        <v>2493750</v>
       </c>
       <c r="L60" t="n">
-        <v>1408390.69</v>
+        <v>2197668.27</v>
       </c>
       <c r="M60" t="n">
-        <v>2840577.6</v>
+        <v>3388901.1</v>
       </c>
       <c r="N60" t="n">
-        <v>24156807.71</v>
+        <v>28302441.63</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4300,37 +4300,37 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J61" t="n">
-        <v>21930955</v>
+        <v>30741275</v>
       </c>
       <c r="K61" t="n">
-        <v>4104330</v>
+        <v>3472364</v>
       </c>
       <c r="L61" t="n">
-        <v>1535166.85</v>
+        <v>2151889.25</v>
       </c>
       <c r="M61" t="n">
-        <v>2603528.5</v>
+        <v>3421363.9</v>
       </c>
       <c r="N61" t="n">
-        <v>21896589.65</v>
+        <v>28640385.85</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -4364,37 +4364,37 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J62" t="n">
-        <v>40979993</v>
+        <v>28085812</v>
       </c>
       <c r="K62" t="n">
-        <v>13133323</v>
+        <v>9245985</v>
       </c>
       <c r="L62" t="n">
-        <v>2868599.51</v>
+        <v>1966006.84</v>
       </c>
       <c r="M62" t="n">
-        <v>5411331.600000001</v>
+        <v>3733179.7</v>
       </c>
       <c r="N62" t="n">
-        <v>45833384.89</v>
+        <v>31632610.46</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -4428,37 +4428,37 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
-        <v>33525805</v>
+        <v>37519873</v>
       </c>
       <c r="K63" t="n">
-        <v>3378362</v>
+        <v>1032160</v>
       </c>
       <c r="L63" t="n">
-        <v>2346806.35</v>
+        <v>2626391.11</v>
       </c>
       <c r="M63" t="n">
-        <v>3690416.7</v>
+        <v>3855203.3</v>
       </c>
       <c r="N63" t="n">
-        <v>30866943.95</v>
+        <v>32070438.59</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -4501,28 +4501,28 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J64" t="n">
-        <v>15717800</v>
+        <v>34922379</v>
       </c>
       <c r="K64" t="n">
-        <v>8000304</v>
+        <v>5196183</v>
       </c>
       <c r="L64" t="n">
-        <v>1100246</v>
+        <v>2444566.53</v>
       </c>
       <c r="M64" t="n">
-        <v>2371810.4</v>
+        <v>4011856.2</v>
       </c>
       <c r="N64" t="n">
-        <v>20246047.6</v>
+        <v>33662139.27</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -4556,37 +4556,37 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J65" t="n">
-        <v>21879340</v>
+        <v>39066692</v>
       </c>
       <c r="K65" t="n">
-        <v>3031660</v>
+        <v>4930580</v>
       </c>
       <c r="L65" t="n">
-        <v>1531553.8</v>
+        <v>2734668.44</v>
       </c>
       <c r="M65" t="n">
-        <v>2491100</v>
+        <v>4399727.2</v>
       </c>
       <c r="N65" t="n">
-        <v>20888346.2</v>
+        <v>36862876.36</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -4632,25 +4632,25 @@
         <v>25</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J66" t="n">
-        <v>43784438</v>
+        <v>40762080</v>
       </c>
       <c r="K66" t="n">
-        <v>14398464</v>
+        <v>6035232</v>
       </c>
       <c r="L66" t="n">
-        <v>3064910.66</v>
+        <v>2853345.6</v>
       </c>
       <c r="M66" t="n">
-        <v>5818290.2</v>
+        <v>4679731.2</v>
       </c>
       <c r="N66" t="n">
-        <v>49299701.14</v>
+        <v>39264235.2</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -4684,37 +4684,37 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="J67" t="n">
-        <v>23299668</v>
+        <v>35322723</v>
       </c>
       <c r="K67" t="n">
-        <v>12354373</v>
+        <v>1208536</v>
       </c>
       <c r="L67" t="n">
-        <v>1630976.76</v>
+        <v>2472590.61</v>
       </c>
       <c r="M67" t="n">
-        <v>3565404.1</v>
+        <v>3653125.9</v>
       </c>
       <c r="N67" t="n">
-        <v>30457660.14</v>
+        <v>30405542.49</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -4748,37 +4748,37 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
-        <v>26232475</v>
+        <v>25157512</v>
       </c>
       <c r="K68" t="n">
-        <v>7524818</v>
+        <v>753186</v>
       </c>
       <c r="L68" t="n">
-        <v>1836273.25</v>
+        <v>1761025.84</v>
       </c>
       <c r="M68" t="n">
-        <v>3375729.3</v>
+        <v>2591069.8</v>
       </c>
       <c r="N68" t="n">
-        <v>28545290.45</v>
+        <v>21558602.36</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -4812,37 +4812,37 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J69" t="n">
-        <v>48497564</v>
+        <v>21629815</v>
       </c>
       <c r="K69" t="n">
-        <v>5657043</v>
+        <v>5687782</v>
       </c>
       <c r="L69" t="n">
-        <v>3394829.48</v>
+        <v>1514087.05</v>
       </c>
       <c r="M69" t="n">
-        <v>5415460.7</v>
+        <v>2731759.7</v>
       </c>
       <c r="N69" t="n">
-        <v>45344316.81999999</v>
+        <v>23071750.25</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4876,37 +4876,37 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J70" t="n">
-        <v>34768718</v>
+        <v>37065705</v>
       </c>
       <c r="K70" t="n">
-        <v>8091522</v>
+        <v>4494907</v>
       </c>
       <c r="L70" t="n">
-        <v>2433810.26</v>
+        <v>2594599.35</v>
       </c>
       <c r="M70" t="n">
-        <v>4286024</v>
+        <v>4156061.2</v>
       </c>
       <c r="N70" t="n">
-        <v>36140405.74</v>
+        <v>34809951.45</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4940,37 +4940,37 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J71" t="n">
-        <v>43882550</v>
+        <v>42029781</v>
       </c>
       <c r="K71" t="n">
-        <v>9708116</v>
+        <v>5606254</v>
       </c>
       <c r="L71" t="n">
-        <v>3071778.5</v>
+        <v>2942084.67</v>
       </c>
       <c r="M71" t="n">
-        <v>5359066.600000001</v>
+        <v>4763603.5</v>
       </c>
       <c r="N71" t="n">
-        <v>45159820.9</v>
+        <v>39930346.83</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5004,37 +5004,37 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="J72" t="n">
-        <v>31765459</v>
+        <v>28735755</v>
       </c>
       <c r="K72" t="n">
-        <v>7007352</v>
+        <v>2081020</v>
       </c>
       <c r="L72" t="n">
-        <v>2223582.13</v>
+        <v>2011502.85</v>
       </c>
       <c r="M72" t="n">
-        <v>3877281.1</v>
+        <v>3081677.5</v>
       </c>
       <c r="N72" t="n">
-        <v>32671947.77</v>
+        <v>25723594.65</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5068,37 +5068,37 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H73" t="n">
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="J73" t="n">
-        <v>15368282</v>
+        <v>34034777</v>
       </c>
       <c r="K73" t="n">
-        <v>1022336</v>
+        <v>4663980</v>
       </c>
       <c r="L73" t="n">
-        <v>1075779.74</v>
+        <v>2382434.39</v>
       </c>
       <c r="M73" t="n">
-        <v>1639061.8</v>
+        <v>3869875.7</v>
       </c>
       <c r="N73" t="n">
-        <v>13675776.46</v>
+        <v>32446446.91</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5132,37 +5132,37 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J74" t="n">
-        <v>41968650</v>
+        <v>24361824</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>2061990</v>
       </c>
       <c r="L74" t="n">
-        <v>2937805.5</v>
+        <v>1705327.68</v>
       </c>
       <c r="M74" t="n">
-        <v>4196865</v>
+        <v>2642381.4</v>
       </c>
       <c r="N74" t="n">
-        <v>34833979.5</v>
+        <v>22076104.92</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5196,37 +5196,37 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J75" t="n">
-        <v>38451294</v>
+        <v>17534756</v>
       </c>
       <c r="K75" t="n">
-        <v>1050652</v>
+        <v>4530030</v>
       </c>
       <c r="L75" t="n">
-        <v>2691590.58</v>
+        <v>1227432.92</v>
       </c>
       <c r="M75" t="n">
-        <v>3950194.6</v>
+        <v>2206478.6</v>
       </c>
       <c r="N75" t="n">
-        <v>32860160.82</v>
+        <v>18630874.48</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -5260,37 +5260,37 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J76" t="n">
-        <v>41925039</v>
+        <v>39896706</v>
       </c>
       <c r="K76" t="n">
-        <v>2345184</v>
+        <v>2318694</v>
       </c>
       <c r="L76" t="n">
-        <v>2934752.73</v>
+        <v>2792769.42</v>
       </c>
       <c r="M76" t="n">
-        <v>4427022.3</v>
+        <v>4221540</v>
       </c>
       <c r="N76" t="n">
-        <v>36908447.97</v>
+        <v>35201090.58</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -5324,37 +5324,37 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>29</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I77" t="n">
         <v>21</v>
       </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>30</v>
-      </c>
       <c r="J77" t="n">
-        <v>44839387</v>
+        <v>18881086</v>
       </c>
       <c r="K77" t="n">
-        <v>8045250</v>
+        <v>3707823</v>
       </c>
       <c r="L77" t="n">
-        <v>3138757.09</v>
+        <v>1321676.02</v>
       </c>
       <c r="M77" t="n">
-        <v>5288463.7</v>
+        <v>2258890.9</v>
       </c>
       <c r="N77" t="n">
-        <v>44457416.20999999</v>
+        <v>19008342.08</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -5397,28 +5397,28 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J78" t="n">
-        <v>30734086</v>
+        <v>29147167</v>
       </c>
       <c r="K78" t="n">
-        <v>7857710</v>
+        <v>6974198</v>
       </c>
       <c r="L78" t="n">
-        <v>2151386.02</v>
+        <v>2040301.69</v>
       </c>
       <c r="M78" t="n">
-        <v>3859179.6</v>
+        <v>3612136.5</v>
       </c>
       <c r="N78" t="n">
-        <v>32581230.38</v>
+        <v>30468926.81</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -5452,37 +5452,37 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J79" t="n">
-        <v>26635330</v>
+        <v>34751729</v>
       </c>
       <c r="K79" t="n">
-        <v>6847500</v>
+        <v>1526553</v>
       </c>
       <c r="L79" t="n">
-        <v>1864473.1</v>
+        <v>2432621.03</v>
       </c>
       <c r="M79" t="n">
-        <v>3348283</v>
+        <v>3627828.2</v>
       </c>
       <c r="N79" t="n">
-        <v>28270073.9</v>
+        <v>30217832.77</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -5516,37 +5516,37 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J80" t="n">
-        <v>39854416</v>
+        <v>39966651</v>
       </c>
       <c r="K80" t="n">
-        <v>2777070</v>
+        <v>2097606</v>
       </c>
       <c r="L80" t="n">
-        <v>2789809.12</v>
+        <v>2797665.57</v>
       </c>
       <c r="M80" t="n">
-        <v>4263148.600000001</v>
+        <v>4206425.7</v>
       </c>
       <c r="N80" t="n">
-        <v>35578528.28</v>
+        <v>35060165.73</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -5580,37 +5580,37 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>زهرا کریمی</t>
         </is>
       </c>
       <c r="G81" t="n">
         <v>20</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J81" t="n">
-        <v>40192288</v>
+        <v>32068011</v>
       </c>
       <c r="K81" t="n">
-        <v>791147</v>
+        <v>3196769</v>
       </c>
       <c r="L81" t="n">
-        <v>2813460.16</v>
+        <v>2244760.77</v>
       </c>
       <c r="M81" t="n">
-        <v>4098343.5</v>
+        <v>3526478</v>
       </c>
       <c r="N81" t="n">
-        <v>34071631.34</v>
+        <v>29493541.23</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -5653,28 +5653,28 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J82" t="n">
-        <v>45949598</v>
+        <v>17139279</v>
       </c>
       <c r="K82" t="n">
-        <v>3348912</v>
+        <v>2986700</v>
       </c>
       <c r="L82" t="n">
-        <v>3216471.86</v>
+        <v>1199749.53</v>
       </c>
       <c r="M82" t="n">
-        <v>4929851</v>
+        <v>2012597.9</v>
       </c>
       <c r="N82" t="n">
-        <v>41152187.14</v>
+        <v>16913631.57</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -5708,37 +5708,37 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J83" t="n">
-        <v>29066180</v>
+        <v>34968885</v>
       </c>
       <c r="K83" t="n">
-        <v>2595490</v>
+        <v>2715570</v>
       </c>
       <c r="L83" t="n">
-        <v>2034632.6</v>
+        <v>2447821.95</v>
       </c>
       <c r="M83" t="n">
-        <v>3166167</v>
+        <v>3768445.5</v>
       </c>
       <c r="N83" t="n">
-        <v>26460870.4</v>
+        <v>31468187.55</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -5772,37 +5772,37 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H84" t="n">
         <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J84" t="n">
-        <v>27995238</v>
+        <v>48851974</v>
       </c>
       <c r="K84" t="n">
-        <v>7397996</v>
+        <v>7181820</v>
       </c>
       <c r="L84" t="n">
-        <v>1959666.66</v>
+        <v>3419638.18</v>
       </c>
       <c r="M84" t="n">
-        <v>3539323.4</v>
+        <v>5603379.4</v>
       </c>
       <c r="N84" t="n">
-        <v>29894243.94</v>
+        <v>47010776.42</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -5836,37 +5836,37 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>حسین صالحی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J85" t="n">
-        <v>23233359</v>
+        <v>46545544</v>
       </c>
       <c r="K85" t="n">
-        <v>3871504</v>
+        <v>4163088</v>
       </c>
       <c r="L85" t="n">
-        <v>1626335.13</v>
+        <v>3258188.080000001</v>
       </c>
       <c r="M85" t="n">
-        <v>2710486.3</v>
+        <v>5070863.2</v>
       </c>
       <c r="N85" t="n">
-        <v>22768041.57</v>
+        <v>42379580.72</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -5900,37 +5900,37 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J86" t="n">
-        <v>30223699</v>
+        <v>49420630</v>
       </c>
       <c r="K86" t="n">
-        <v>2737664</v>
+        <v>7029066</v>
       </c>
       <c r="L86" t="n">
-        <v>2115658.93</v>
+        <v>3459444.100000001</v>
       </c>
       <c r="M86" t="n">
-        <v>3296136.3</v>
+        <v>5644969.600000001</v>
       </c>
       <c r="N86" t="n">
-        <v>27549567.77</v>
+        <v>47345282.3</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -5973,28 +5973,28 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H87" t="n">
         <v>5</v>
       </c>
       <c r="I87" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J87" t="n">
-        <v>15622710</v>
+        <v>42237633</v>
       </c>
       <c r="K87" t="n">
-        <v>5695952</v>
+        <v>2624912</v>
       </c>
       <c r="L87" t="n">
-        <v>1093589.7</v>
+        <v>2956634.31</v>
       </c>
       <c r="M87" t="n">
-        <v>2131866.2</v>
+        <v>4486254.5</v>
       </c>
       <c r="N87" t="n">
-        <v>18093206.1</v>
+        <v>37419656.19</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -6028,37 +6028,37 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>27143151</v>
+        <v>43920287</v>
       </c>
       <c r="K88" t="n">
-        <v>3944704</v>
+        <v>396132</v>
       </c>
       <c r="L88" t="n">
-        <v>1900020.57</v>
+        <v>3074420.09</v>
       </c>
       <c r="M88" t="n">
-        <v>3108785.5</v>
+        <v>4431641.9</v>
       </c>
       <c r="N88" t="n">
-        <v>26079048.93</v>
+        <v>36810357.01</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -6092,37 +6092,37 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J89" t="n">
-        <v>17215026</v>
+        <v>20378062</v>
       </c>
       <c r="K89" t="n">
-        <v>3041080</v>
+        <v>6119646</v>
       </c>
       <c r="L89" t="n">
-        <v>1205051.82</v>
+        <v>1426464.34</v>
       </c>
       <c r="M89" t="n">
-        <v>2025610.6</v>
+        <v>2649770.8</v>
       </c>
       <c r="N89" t="n">
-        <v>17025443.58</v>
+        <v>22421472.86</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -6156,37 +6156,37 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>فاطمه محمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G90" t="n">
         <v>20</v>
       </c>
       <c r="H90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I90" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J90" t="n">
-        <v>18043217</v>
+        <v>32519992</v>
       </c>
       <c r="K90" t="n">
-        <v>4421513</v>
+        <v>5193468</v>
       </c>
       <c r="L90" t="n">
-        <v>1263025.19</v>
+        <v>2276399.44</v>
       </c>
       <c r="M90" t="n">
-        <v>2246473</v>
+        <v>3771346</v>
       </c>
       <c r="N90" t="n">
-        <v>18955231.81</v>
+        <v>31665714.56</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -6229,28 +6229,28 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J91" t="n">
-        <v>23378938</v>
+        <v>16179539</v>
       </c>
       <c r="K91" t="n">
-        <v>1341900</v>
+        <v>4561932</v>
       </c>
       <c r="L91" t="n">
-        <v>1636525.66</v>
+        <v>1132567.73</v>
       </c>
       <c r="M91" t="n">
-        <v>2472083.8</v>
+        <v>2074147.1</v>
       </c>
       <c r="N91" t="n">
-        <v>20612228.54</v>
+        <v>17534756.17</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -6284,37 +6284,37 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J92" t="n">
-        <v>48527633</v>
+        <v>48886856</v>
       </c>
       <c r="K92" t="n">
-        <v>3162778</v>
+        <v>9475128</v>
       </c>
       <c r="L92" t="n">
-        <v>3396934.310000001</v>
+        <v>3422079.92</v>
       </c>
       <c r="M92" t="n">
-        <v>5169041.100000001</v>
+        <v>5836198.4</v>
       </c>
       <c r="N92" t="n">
-        <v>43124435.59</v>
+        <v>49103705.68</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -6348,37 +6348,37 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J93" t="n">
-        <v>42675256</v>
+        <v>32668635</v>
       </c>
       <c r="K93" t="n">
-        <v>10870230</v>
+        <v>6756365</v>
       </c>
       <c r="L93" t="n">
-        <v>2987267.92</v>
+        <v>2286804.45</v>
       </c>
       <c r="M93" t="n">
-        <v>5354548.600000001</v>
+        <v>3942500</v>
       </c>
       <c r="N93" t="n">
-        <v>45203669.48</v>
+        <v>33195695.55</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -6412,37 +6412,37 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H94" t="n">
         <v>5</v>
       </c>
       <c r="I94" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J94" t="n">
-        <v>37297753</v>
+        <v>46172238</v>
       </c>
       <c r="K94" t="n">
-        <v>7950170</v>
+        <v>2734584</v>
       </c>
       <c r="L94" t="n">
-        <v>2610842.71</v>
+        <v>3232056.66</v>
       </c>
       <c r="M94" t="n">
-        <v>4524792.3</v>
+        <v>4890682.2</v>
       </c>
       <c r="N94" t="n">
-        <v>38112287.99</v>
+        <v>40784083.14</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -6476,37 +6476,37 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J95" t="n">
-        <v>20274325</v>
+        <v>23160761</v>
       </c>
       <c r="K95" t="n">
-        <v>7820988</v>
+        <v>6228285</v>
       </c>
       <c r="L95" t="n">
-        <v>1419202.75</v>
+        <v>1621253.27</v>
       </c>
       <c r="M95" t="n">
-        <v>2809531.3</v>
+        <v>2938904.6</v>
       </c>
       <c r="N95" t="n">
-        <v>23866578.95</v>
+        <v>24828888.13</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -6540,37 +6540,37 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="J96" t="n">
-        <v>32225428</v>
+        <v>46738892</v>
       </c>
       <c r="K96" t="n">
-        <v>1241958</v>
+        <v>6787206</v>
       </c>
       <c r="L96" t="n">
-        <v>2255779.96</v>
+        <v>3271722.44</v>
       </c>
       <c r="M96" t="n">
-        <v>3346738.6</v>
+        <v>5352609.800000001</v>
       </c>
       <c r="N96" t="n">
-        <v>27864867.44</v>
+        <v>44901765.76000001</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -6604,37 +6604,37 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>محمد رضایی</t>
+          <t>علی احمدی</t>
         </is>
       </c>
       <c r="G97" t="n">
         <v>20</v>
       </c>
       <c r="H97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J97" t="n">
-        <v>24563253</v>
+        <v>22961592</v>
       </c>
       <c r="K97" t="n">
-        <v>1477136</v>
+        <v>3589710</v>
       </c>
       <c r="L97" t="n">
-        <v>1719427.71</v>
+        <v>1607311.44</v>
       </c>
       <c r="M97" t="n">
-        <v>2604038.9</v>
+        <v>2655130.2</v>
       </c>
       <c r="N97" t="n">
-        <v>21716922.39</v>
+        <v>22288860.36</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -6668,37 +6668,37 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>حسین صالحی</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H98" t="n">
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J98" t="n">
-        <v>15260392</v>
+        <v>22538982</v>
       </c>
       <c r="K98" t="n">
-        <v>8936375</v>
+        <v>7800000</v>
       </c>
       <c r="L98" t="n">
-        <v>1068227.44</v>
+        <v>1577728.74</v>
       </c>
       <c r="M98" t="n">
-        <v>2419676.7</v>
+        <v>3033898.2</v>
       </c>
       <c r="N98" t="n">
-        <v>20708862.86</v>
+        <v>25727355.06</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -6732,37 +6732,37 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J99" t="n">
-        <v>26070937</v>
+        <v>49457828</v>
       </c>
       <c r="K99" t="n">
-        <v>3398076</v>
+        <v>1334432</v>
       </c>
       <c r="L99" t="n">
-        <v>1824965.59</v>
+        <v>3462047.96</v>
       </c>
       <c r="M99" t="n">
-        <v>2946901.3</v>
+        <v>5079226</v>
       </c>
       <c r="N99" t="n">
-        <v>24697146.11</v>
+        <v>42250986.04</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -6796,37 +6796,37 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>زهرا کریمی</t>
+          <t>محمد رضایی</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J100" t="n">
-        <v>33877775</v>
+        <v>22376534</v>
       </c>
       <c r="K100" t="n">
-        <v>3101982</v>
+        <v>3180222</v>
       </c>
       <c r="L100" t="n">
-        <v>2371444.25</v>
+        <v>1566357.38</v>
       </c>
       <c r="M100" t="n">
-        <v>3697975.7</v>
+        <v>2555675.6</v>
       </c>
       <c r="N100" t="n">
-        <v>30910337.05</v>
+        <v>21434723.02</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -6860,37 +6860,37 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>علی احمدی</t>
+          <t>فاطمه محمدی</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J101" t="n">
-        <v>15190402</v>
+        <v>18497687</v>
       </c>
       <c r="K101" t="n">
-        <v>9298944</v>
+        <v>4491060</v>
       </c>
       <c r="L101" t="n">
-        <v>1063328.14</v>
+        <v>1294838.09</v>
       </c>
       <c r="M101" t="n">
-        <v>2448934.6</v>
+        <v>2298874.7</v>
       </c>
       <c r="N101" t="n">
-        <v>20977083.26</v>
+        <v>19395034.21</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
